--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Confusion_Matrix_Elements_Fold_15.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Confusion_Matrix_Elements_Fold_15.xlsx
@@ -437,7 +437,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>

--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Confusion_Matrix_Elements_Fold_15.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Confusion_Matrix_Elements_Fold_15.xlsx
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
